--- a/data/trans_camb/P57_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 15,48</t>
+          <t>4,45; 15,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,55</t>
+          <t>5,29; 12,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 12,02</t>
+          <t>6,29; 11,94</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,16; 75,2</t>
+          <t>17,17; 68,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,02; 76,77</t>
+          <t>27,18; 75,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,22; 63,36</t>
+          <t>28,51; 62,2</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 36,81</t>
+          <t>18,25; 38,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 16,83</t>
+          <t>-0,75; 16,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 25,47</t>
+          <t>11,62; 26,3</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,79; 120,53</t>
+          <t>58,32; 123,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 60,23</t>
+          <t>-2,26; 60,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>38,31; 88,54</t>
+          <t>38,83; 89,08</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,56</t>
+          <t>3,39; 15,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 16,4</t>
+          <t>5,21; 16,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,55</t>
+          <t>5,95; 14,18</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,13; 44,24</t>
+          <t>7,58; 43,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 52,7</t>
+          <t>13,71; 52,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 43,19</t>
+          <t>15,09; 41,27</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 32,65</t>
+          <t>15,7; 30,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 14,95</t>
+          <t>4,42; 14,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,12; 21,47</t>
+          <t>12,14; 21,73</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>49,29; 106,73</t>
+          <t>50,65; 100,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,22; 57,99</t>
+          <t>17,17; 57,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,6; 75,58</t>
+          <t>41,41; 76,56</t>
         </is>
       </c>
     </row>
